--- a/GeoPriorApp/prior_apptest.xlsx
+++ b/GeoPriorApp/prior_apptest.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Class</t>
   </si>
@@ -36,6 +36,9 @@
     <t>Paleogene clay</t>
   </si>
   <si>
+    <t>Class name</t>
+  </si>
+  <si>
     <t>Min thickness</t>
   </si>
   <si>
@@ -60,18 +63,18 @@
     <t>178,255,154</t>
   </si>
   <si>
+    <t>198,182,6</t>
+  </si>
+  <si>
     <t>Classes</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>1,2</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -118,6 +121,9 @@
   </si>
   <si>
     <t>Paleogene clay</t>
+  </si>
+  <si>
+    <t>Class name</t>
   </si>
   <si>
     <t>Resistivity</t>
@@ -169,7 +175,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.42578125" customWidth="true"/>
@@ -183,13 +189,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">
@@ -203,7 +209,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -217,7 +223,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -231,7 +237,7 @@
         <v>30</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -245,7 +251,7 @@
         <v>30</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -259,7 +265,21 @@
         <v>100</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -268,7 +288,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I4"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.5703125" customWidth="true"/>
@@ -284,54 +304,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" s="0">
         <v>1</v>
       </c>
       <c r="D2" s="0">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E2" s="0">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F2" s="0">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="G2" s="0">
-        <v>1</v>
+        <v>0.69999999999999996</v>
       </c>
       <c r="H2" s="0">
         <v>1</v>
@@ -342,25 +362,25 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="0">
         <v>1</v>
       </c>
       <c r="D3" s="0">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E3" s="0">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F3" s="0">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="G3" s="0">
-        <v>0.69999999999999996</v>
+        <v>1</v>
       </c>
       <c r="H3" s="0">
         <v>1</v>
@@ -371,47 +391,18 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="0">
-        <v>1</v>
-      </c>
-      <c r="D4" s="0">
-        <v>1</v>
-      </c>
-      <c r="E4" s="0">
-        <v>3</v>
-      </c>
-      <c r="F4" s="0">
-        <v>30</v>
-      </c>
-      <c r="G4" s="0">
-        <v>0.69999999999999996</v>
-      </c>
-      <c r="H4" s="0">
-        <v>1</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C4" s="0"/>
+      <c r="D4" s="0"/>
+      <c r="E4" s="0"/>
+      <c r="F4" s="0"/>
+      <c r="G4" s="0"/>
+      <c r="H4" s="0"/>
       <c r="I4" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="0"/>
-      <c r="D5" s="0"/>
-      <c r="E5" s="0"/>
-      <c r="F5" s="0"/>
-      <c r="G5" s="0"/>
-      <c r="H5" s="0"/>
-      <c r="I5" s="0">
         <v>0</v>
       </c>
     </row>
@@ -421,7 +412,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.42578125" customWidth="true"/>
@@ -431,18 +422,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" s="0">
         <v>130</v>
@@ -453,7 +444,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" s="0">
         <v>50</v>
@@ -464,7 +455,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" s="0">
         <v>110</v>
@@ -475,7 +466,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" s="0">
         <v>20</v>
@@ -486,13 +477,24 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" s="0">
         <v>5</v>
       </c>
       <c r="C6" s="0">
         <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="0">
+        <v>10</v>
+      </c>
+      <c r="C7" s="0">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
